--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value99.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value99.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9547907127890102</v>
+        <v>2.150445461273193</v>
       </c>
       <c r="B1">
-        <v>1.370084075716275</v>
+        <v>3.084508419036865</v>
       </c>
       <c r="C1">
-        <v>2.634174923273533</v>
+        <v>2.730147838592529</v>
       </c>
       <c r="D1">
-        <v>4.720821520837098</v>
+        <v>1.682782888412476</v>
       </c>
       <c r="E1">
-        <v>1.240506404377606</v>
+        <v>0.8727366328239441</v>
       </c>
     </row>
   </sheetData>
